--- a/ACUL MASTER Draw Spring 2018.xlsx
+++ b/ACUL MASTER Draw Spring 2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\startbootstrap-landing-page-gh-pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\002 Auckland Corporate Ultimate League\league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2CF7BD-86CE-4254-BD41-2DF8B06B97F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899B13C-BAF2-475E-8A21-9F4A96961E5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,17 +1109,17 @@
       <c r="H3" s="24"/>
       <c r="I3" s="20">
         <f>IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F3)+(J3/10000000000000)))</f>
-        <v>1.9999999999989</v>
+        <v>1.9999999999892999</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J10" si="0">(SUMIF(O:O,F3,P:P))+(SUMIF(M:M,F3,N:N))</f>
-        <v>-11</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="2">
         <f>RANK(I4,$I$3:$I$10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="28" t="str">
         <f>Cover!B4</f>
@@ -1129,17 +1129,17 @@
       <c r="H4" s="30"/>
       <c r="I4" s="20">
         <f t="shared" ref="I4:I10" si="1">IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F4)+(J4/10000000000000)))</f>
-        <v>3.9999999999994</v>
+        <v>2.9999999999893001</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E5" s="2">
         <f>RANK(I5,$I$3:$I$10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="28" t="str">
         <f>Cover!B5</f>
@@ -1149,17 +1149,17 @@
       <c r="H5" s="30"/>
       <c r="I5" s="20">
         <f t="shared" si="1"/>
-        <v>4.0000000000003997</v>
+        <v>3.9999999999906</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <f>RANK(I6,$I$3:$I$10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="28" t="str">
         <f>Cover!B6</f>
@@ -1169,11 +1169,11 @@
       <c r="H6" s="30"/>
       <c r="I6" s="20">
         <f t="shared" si="1"/>
-        <v>2.0000000000003002</v>
+        <v>1.9999999999907001</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1189,17 +1189,17 @@
       <c r="H7" s="30"/>
       <c r="I7" s="20">
         <f t="shared" si="1"/>
-        <v>4.0000000000020997</v>
+        <v>4.0000000000117</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="28" t="str">
         <f>Cover!B8</f>
@@ -1209,17 +1209,17 @@
       <c r="H8" s="30"/>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>2.9999999999968998</v>
+        <v>4.0000000000069997</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="28" t="str">
         <f>Cover!B9</f>
@@ -1229,11 +1229,11 @@
       <c r="H9" s="30"/>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.0000000000098002</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1249,11 +1249,11 @@
       <c r="H10" s="27"/>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>3.0000000000020002</v>
+        <v>3.0000000000116001</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="14">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>3</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="14">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="1" t="str">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="N15" s="1">
         <f>IF(G15&gt;K15,G15-K15,K15-G15)</f>
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="O15" s="1" t="str">
         <f>IF((G15+K15)=0,"",IF(E15=M15,I15,E15))</f>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="P15" s="1">
         <f>IF(G15&gt;K15,K15-G15,G15-K15)</f>
-        <v>-4</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="14">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>3</v>
@@ -1368,24 +1368,24 @@
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="14">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>GHD</v>
+        <v>Vending Machine</v>
       </c>
       <c r="N17" s="1">
         <f>IF(G17&gt;K17,G17-K17,K17-G17)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Vending Machine</v>
+        <v>GHD</v>
       </c>
       <c r="P17" s="1">
         <f>IF(G17&gt;K17,K17-G17,G17-K17)</f>
-        <v>-1</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="14">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>3</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="14">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="N21" s="1">
         <f>IF(G21&gt;K21,G21-K21,K21-G21)</f>
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="P21" s="1">
         <f>IF(G21&gt;K21,K21-G21,G21-K21)</f>
-        <v>-2</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="14">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>3</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="14">
-        <v>6</v>
+        <v>900</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N23" s="1">
         <f>IF(G23&gt;K23,G23-K23,K23-G23)</f>
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="P23" s="1">
         <f>IF(G23&gt;K23,K23-G23,G23-K23)</f>
-        <v>-4</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E99" s="29" t="str">
         <f>VLOOKUP(7,$E$3:$H$10,2,FALSE)</f>
-        <v>ESR and Friends</v>
+        <v>One Team One Meme</v>
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="14">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="E101" s="29" t="str">
         <f>VLOOKUP(5,$E$3:$H$10,2,FALSE)</f>
-        <v>Vending Machine</v>
+        <v>GHD</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="14">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="I101" s="29" t="str">
         <f>VLOOKUP(6,$E$3:$H$10,2,FALSE)</f>
-        <v>One Team One Meme</v>
+        <v>ESR and Friends</v>
       </c>
       <c r="J101" s="29"/>
       <c r="K101" s="14">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP(3,$E$3:$H$10,2,FALSE)</f>
-        <v>GHD</v>
+        <v>Frizoo</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="14">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="I107" s="29" t="str">
         <f>VLOOKUP(2,$E$3:$H$10,2,FALSE)</f>
-        <v>Frizoo</v>
+        <v>Vending Machine</v>
       </c>
       <c r="J107" s="29"/>
       <c r="K107" s="14">
@@ -3672,11 +3672,11 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="17">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>4.0000000000020997</v>
+        <v>4.0000000000117</v>
       </c>
       <c r="AB5" s="1">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="G6" s="14">
         <f>'Enter scores'!G15</f>
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>'Enter scores'!H15</f>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="K6" s="14">
         <f>'Enter scores'!K15</f>
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="29" t="str">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O6" s="14">
         <f>'Enter scores'!G21</f>
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="P6" s="2" t="str">
         <f>'Enter scores'!H21</f>
@@ -3739,24 +3739,24 @@
       </c>
       <c r="S6" s="14">
         <f>'Enter scores'!K21</f>
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="W6" s="2">
         <v>2</v>
       </c>
       <c r="X6" s="28" t="str">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>Frizoo</v>
+        <v>Vending Machine</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="17">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>4.0000000000003997</v>
+        <v>4.0000000000069997</v>
       </c>
       <c r="AB6" s="1">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3781,17 +3781,17 @@
       </c>
       <c r="X7" s="28" t="str">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>GHD</v>
+        <v>Frizoo</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="17">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>3.9999999999994</v>
+        <v>3.9999999999906</v>
       </c>
       <c r="AB7" s="1">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-6</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G8" s="14">
         <f>'Enter scores'!G17</f>
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="H8" s="2" t="str">
         <f>'Enter scores'!H17</f>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="K8" s="14">
         <f>'Enter scores'!K17</f>
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="29" t="str">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="O8" s="14">
         <f>'Enter scores'!G23</f>
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="P8" s="2" t="str">
         <f>'Enter scores'!H23</f>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="S8" s="14">
         <f>'Enter scores'!K23</f>
-        <v>6</v>
+        <v>900</v>
       </c>
       <c r="W8" s="2">
         <v>4</v>
@@ -3867,11 +3867,11 @@
       <c r="Z8" s="30"/>
       <c r="AA8" s="17">
         <f>VLOOKUP(W8,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>3.0000000000020002</v>
+        <v>3.0000000000116001</v>
       </c>
       <c r="AB8" s="1">
         <f>VLOOKUP(W8,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="X9" s="28" t="str">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>Vending Machine</v>
+        <v>GHD</v>
       </c>
       <c r="Y9" s="29"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="17">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.9999999999968998</v>
+        <v>2.9999999999893001</v>
       </c>
       <c r="AB9" s="1">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-31</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3901,17 +3901,17 @@
       </c>
       <c r="X10" s="28" t="str">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>One Team One Meme</v>
+        <v>ESR and Friends</v>
       </c>
       <c r="Y10" s="29"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="17">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.0000000000003002</v>
+        <v>2.0000000000098002</v>
       </c>
       <c r="AB10" s="1">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3921,17 +3921,17 @@
       </c>
       <c r="X11" s="28" t="str">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>ESR and Friends</v>
+        <v>One Team One Meme</v>
       </c>
       <c r="Y11" s="29"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="17">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2</v>
+        <v>1.9999999999907001</v>
       </c>
       <c r="AB11" s="1">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>0</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4014,11 +4014,11 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="17">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>1.9999999999989</v>
+        <v>1.9999999999892999</v>
       </c>
       <c r="AB12" s="1">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-11</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="E62" s="29" t="str">
         <f>'Enter scores'!E99</f>
-        <v>ESR and Friends</v>
+        <v>One Team One Meme</v>
       </c>
       <c r="F62" s="29">
         <f>'Enter scores'!F99</f>
@@ -5396,7 +5396,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="29" t="str">
         <f>'Enter scores'!E105</f>
-        <v>GHD</v>
+        <v>Frizoo</v>
       </c>
       <c r="N62" s="29">
         <f>'Enter scores'!F105</f>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E64" s="29" t="str">
         <f>'Enter scores'!E101</f>
-        <v>Vending Machine</v>
+        <v>GHD</v>
       </c>
       <c r="F64" s="29">
         <f>'Enter scores'!F101</f>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="I64" s="29" t="str">
         <f>'Enter scores'!I101</f>
-        <v>One Team One Meme</v>
+        <v>ESR and Friends</v>
       </c>
       <c r="J64" s="29">
         <f>'Enter scores'!J101</f>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="Q64" s="29" t="str">
         <f>'Enter scores'!I107</f>
-        <v>Frizoo</v>
+        <v>Vending Machine</v>
       </c>
       <c r="R64" s="29">
         <f>'Enter scores'!J107</f>

--- a/ACUL MASTER Draw Spring 2018.xlsx
+++ b/ACUL MASTER Draw Spring 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\002 Auckland Corporate Ultimate League\league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899B13C-BAF2-475E-8A21-9F4A96961E5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D73517-A2F6-44E5-8C1B-18CD6ADEE51E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,11 +1109,11 @@
       <c r="H3" s="24"/>
       <c r="I3" s="20">
         <f>IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F3)+(J3/10000000000000)))</f>
-        <v>1.9999999999892999</v>
+        <v>1.9999999999882001</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J10" si="0">(SUMIF(O:O,F3,P:P))+(SUMIF(M:M,F3,N:N))</f>
-        <v>-107</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1149,11 +1149,11 @@
       <c r="H5" s="30"/>
       <c r="I5" s="20">
         <f t="shared" si="1"/>
-        <v>3.9999999999906</v>
+        <v>3.9999999999895</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1189,11 +1189,11 @@
       <c r="H7" s="30"/>
       <c r="I7" s="20">
         <f t="shared" si="1"/>
-        <v>4.0000000000117</v>
+        <v>4.0000000000128004</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1229,11 +1229,11 @@
       <c r="H9" s="30"/>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>2.0000000000098002</v>
+        <v>2.0000000000109002</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="14">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>3</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="14">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="1" t="str">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="N15" s="1">
         <f>IF(G15&gt;K15,G15-K15,K15-G15)</f>
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O15" s="1" t="str">
         <f>IF((G15+K15)=0,"",IF(E15=M15,I15,E15))</f>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="P15" s="1">
         <f>IF(G15&gt;K15,K15-G15,G15-K15)</f>
-        <v>-100</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="14">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>3</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="14">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="N21" s="1">
         <f>IF(G21&gt;K21,G21-K21,K21-G21)</f>
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="P21" s="1">
         <f>IF(G21&gt;K21,K21-G21,G21-K21)</f>
-        <v>-100</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3414,6 +3414,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="E103:K103"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:K85"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="E67:K67"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B37:D37"/>
@@ -3430,86 +3510,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="E19:K19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="E67:K67"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:K49"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:K85"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="E103:K103"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="EY Tigers">
@@ -3672,11 +3672,11 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="17">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>4.0000000000117</v>
+        <v>4.0000000000128004</v>
       </c>
       <c r="AB5" s="1">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="G6" s="14">
         <f>'Enter scores'!G15</f>
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>'Enter scores'!H15</f>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="K6" s="14">
         <f>'Enter scores'!K15</f>
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="29" t="str">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O6" s="14">
         <f>'Enter scores'!G21</f>
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="P6" s="2" t="str">
         <f>'Enter scores'!H21</f>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="S6" s="14">
         <f>'Enter scores'!K21</f>
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="W6" s="2">
         <v>2</v>
@@ -3787,11 +3787,11 @@
       <c r="Z7" s="30"/>
       <c r="AA7" s="17">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>3.9999999999906</v>
+        <v>3.9999999999895</v>
       </c>
       <c r="AB7" s="1">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-94</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3907,11 +3907,11 @@
       <c r="Z10" s="30"/>
       <c r="AA10" s="17">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.0000000000098002</v>
+        <v>2.0000000000109002</v>
       </c>
       <c r="AB10" s="1">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4014,11 +4014,11 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="17">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>1.9999999999892999</v>
+        <v>1.9999999999882001</v>
       </c>
       <c r="AB12" s="1">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-107</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5507,20 +5507,80 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="M60:S60"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q22:R22"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="M14:N14"/>
@@ -5529,80 +5589,20 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="M60:S60"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Court 2">

--- a/ACUL MASTER Draw Spring 2018.xlsx
+++ b/ACUL MASTER Draw Spring 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\002 Auckland Corporate Ultimate League\league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D73517-A2F6-44E5-8C1B-18CD6ADEE51E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0914BD6-1DC7-410D-AF5D-DE1EA8BCE04D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
   <si>
     <t>Court 1</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Add conditional formatting for new teams, in both Enter scores and Display Draw</t>
-  </si>
-  <si>
-    <t>fuck</t>
   </si>
 </sst>
 </file>
@@ -409,6 +406,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6E2EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -480,76 +547,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA6E2EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1054,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U107"/>
+  <dimension ref="B2:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,12 +1074,7 @@
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E3" s="2">
         <f>RANK(I3,$I$3:$I$10)</f>
         <v>8</v>
@@ -1109,14 +1101,14 @@
       <c r="H3" s="24"/>
       <c r="I3" s="20">
         <f>IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F3)+(J3/10000000000000)))</f>
-        <v>1.9999999999882001</v>
-      </c>
-      <c r="J3" s="1">
+        <v>1.9999999999982001</v>
+      </c>
+      <c r="J3" s="17">
         <f t="shared" ref="J3:J10" si="0">(SUMIF(O:O,F3,P:P))+(SUMIF(M:M,F3,N:N))</f>
-        <v>-118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E4" s="2">
         <f>RANK(I4,$I$3:$I$10)</f>
         <v>5</v>
@@ -1129,17 +1121,17 @@
       <c r="H4" s="30"/>
       <c r="I4" s="20">
         <f t="shared" ref="I4:I10" si="1">IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F4)+(J4/10000000000000)))</f>
-        <v>2.9999999999893001</v>
-      </c>
-      <c r="J4" s="1">
+        <v>2.9999999999992002</v>
+      </c>
+      <c r="J4" s="17">
         <f t="shared" si="0"/>
-        <v>-107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E5" s="2">
         <f>RANK(I5,$I$3:$I$10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="28" t="str">
         <f>Cover!B5</f>
@@ -1149,17 +1141,17 @@
       <c r="H5" s="30"/>
       <c r="I5" s="20">
         <f t="shared" si="1"/>
-        <v>3.9999999999895</v>
-      </c>
-      <c r="J5" s="1">
+        <v>4.0000000000003002</v>
+      </c>
+      <c r="J5" s="17">
         <f t="shared" si="0"/>
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <f>RANK(I6,$I$3:$I$10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="28" t="str">
         <f>Cover!B6</f>
@@ -1169,14 +1161,14 @@
       <c r="H6" s="30"/>
       <c r="I6" s="20">
         <f t="shared" si="1"/>
-        <v>1.9999999999907001</v>
-      </c>
-      <c r="J6" s="1">
+        <v>2.0000000000006</v>
+      </c>
+      <c r="J6" s="17">
         <f t="shared" si="0"/>
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <f t="shared" ref="E7:E10" si="2">RANK(I7,$I$3:$I$10)</f>
         <v>1</v>
@@ -1189,17 +1181,17 @@
       <c r="H7" s="30"/>
       <c r="I7" s="20">
         <f t="shared" si="1"/>
-        <v>4.0000000000128004</v>
-      </c>
-      <c r="J7" s="1">
+        <v>4.0000000000028004</v>
+      </c>
+      <c r="J7" s="17">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="28" t="str">
         <f>Cover!B8</f>
@@ -1209,17 +1201,17 @@
       <c r="H8" s="30"/>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>4.0000000000069997</v>
-      </c>
-      <c r="J8" s="1">
+        <v>3.9999999999971001</v>
+      </c>
+      <c r="J8" s="17">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="28" t="str">
         <f>Cover!B9</f>
@@ -1229,14 +1221,14 @@
       <c r="H9" s="30"/>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>2.0000000000109002</v>
-      </c>
-      <c r="J9" s="1">
+        <v>2.0000000000000999</v>
+      </c>
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1249,15 +1241,15 @@
       <c r="H10" s="27"/>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>3.0000000000116001</v>
-      </c>
-      <c r="J10" s="1">
+        <v>3.0000000000017</v>
+      </c>
+      <c r="J10" s="17">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31">
         <v>43360</v>
       </c>
@@ -1273,21 +1265,8 @@
       <c r="J13" s="35"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1">
-        <v>8</v>
-      </c>
-      <c r="K14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="18">
         <v>0.27083333333333331</v>
       </c>
@@ -1297,7 +1276,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="14">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>3</v>
@@ -1308,7 +1287,7 @@
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="14">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="1" t="str">
@@ -1317,7 +1296,7 @@
       </c>
       <c r="N15" s="1">
         <f>IF(G15&gt;K15,G15-K15,K15-G15)</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="O15" s="1" t="str">
         <f>IF((G15+K15)=0,"",IF(E15=M15,I15,E15))</f>
@@ -1325,10 +1304,10 @@
       </c>
       <c r="P15" s="1">
         <f>IF(G15&gt;K15,K15-G15,G15-K15)</f>
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="19"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1357,7 +1336,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="14">
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>3</v>
@@ -1368,7 +1347,7 @@
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="14">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="1" t="str">
@@ -1377,7 +1356,7 @@
       </c>
       <c r="N17" s="1">
         <f>IF(G17&gt;K17,G17-K17,K17-G17)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1385,7 +1364,7 @@
       </c>
       <c r="P17" s="1">
         <f>IF(G17&gt;K17,K17-G17,G17-K17)</f>
-        <v>-100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1440,7 +1419,7 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="14">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>3</v>
@@ -1451,7 +1430,7 @@
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="14">
-        <v>444</v>
+        <v>16</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1459,7 +1438,7 @@
       </c>
       <c r="N21" s="1">
         <f>IF(G21&gt;K21,G21-K21,K21-G21)</f>
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1467,7 +1446,7 @@
       </c>
       <c r="P21" s="1">
         <f>IF(G21&gt;K21,K21-G21,G21-K21)</f>
-        <v>-111</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1498,7 +1477,7 @@
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="14">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>3</v>
@@ -1509,7 +1488,7 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="14">
-        <v>900</v>
+        <v>9</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1517,7 +1496,7 @@
       </c>
       <c r="N23" s="1">
         <f>IF(G23&gt;K23,G23-K23,K23-G23)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1525,7 +1504,7 @@
       </c>
       <c r="P23" s="1">
         <f>IF(G23&gt;K23,K23-G23,G23-K23)</f>
-        <v>-100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3286,7 +3265,7 @@
       </c>
       <c r="E99" s="29" t="str">
         <f>VLOOKUP(7,$E$3:$H$10,2,FALSE)</f>
-        <v>One Team One Meme</v>
+        <v>ESR and Friends</v>
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="14">
@@ -3333,7 +3312,7 @@
       </c>
       <c r="I101" s="29" t="str">
         <f>VLOOKUP(6,$E$3:$H$10,2,FALSE)</f>
-        <v>ESR and Friends</v>
+        <v>One Team One Meme</v>
       </c>
       <c r="J101" s="29"/>
       <c r="K101" s="14">
@@ -3360,7 +3339,7 @@
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP(3,$E$3:$H$10,2,FALSE)</f>
-        <v>Frizoo</v>
+        <v>Vending Machine</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="14">
@@ -3405,7 +3384,7 @@
       </c>
       <c r="I107" s="29" t="str">
         <f>VLOOKUP(2,$E$3:$H$10,2,FALSE)</f>
-        <v>Vending Machine</v>
+        <v>Frizoo</v>
       </c>
       <c r="J107" s="29"/>
       <c r="K107" s="14">
@@ -3414,11 +3393,81 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="E67:K67"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:K85"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="E103:K103"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I99:J99"/>
     <mergeCell ref="I101:J101"/>
@@ -3435,116 +3484,46 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="I75:J75"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="E103:K103"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:K85"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="E67:K67"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:K49"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="E43:K43"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="EY Tigers">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="EY Tigers">
       <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Frizoo">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Frizoo">
       <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="One Team One Meme">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="One Team One Meme">
       <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="HuckHunters">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="HuckHunters">
       <formula>NOT(ISERROR(SEARCH("HuckHunters",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Vending Machine">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Vending Machine">
       <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="ESR and Friends">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="ESR and Friends">
       <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Martians">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Martians">
       <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:K13">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3672,11 +3651,11 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="17">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>4.0000000000128004</v>
+        <v>4.0000000000028004</v>
       </c>
       <c r="AB5" s="1">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3694,7 +3673,7 @@
       </c>
       <c r="G6" s="14">
         <f>'Enter scores'!G15</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>'Enter scores'!H15</f>
@@ -3710,7 +3689,7 @@
       </c>
       <c r="K6" s="14">
         <f>'Enter scores'!K15</f>
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="29" t="str">
@@ -3723,7 +3702,7 @@
       </c>
       <c r="O6" s="14">
         <f>'Enter scores'!G21</f>
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="P6" s="2" t="str">
         <f>'Enter scores'!H21</f>
@@ -3739,24 +3718,24 @@
       </c>
       <c r="S6" s="14">
         <f>'Enter scores'!K21</f>
-        <v>444</v>
+        <v>16</v>
       </c>
       <c r="W6" s="2">
         <v>2</v>
       </c>
       <c r="X6" s="28" t="str">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>Vending Machine</v>
+        <v>Frizoo</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="17">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>4.0000000000069997</v>
+        <v>4.0000000000003002</v>
       </c>
       <c r="AB6" s="1">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3781,17 +3760,17 @@
       </c>
       <c r="X7" s="28" t="str">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>Frizoo</v>
+        <v>Vending Machine</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="17">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>3.9999999999895</v>
+        <v>3.9999999999971001</v>
       </c>
       <c r="AB7" s="1">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-105</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3809,7 +3788,7 @@
       </c>
       <c r="G8" s="14">
         <f>'Enter scores'!G17</f>
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="str">
         <f>'Enter scores'!H17</f>
@@ -3825,7 +3804,7 @@
       </c>
       <c r="K8" s="14">
         <f>'Enter scores'!K17</f>
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="29" t="str">
@@ -3838,7 +3817,7 @@
       </c>
       <c r="O8" s="14">
         <f>'Enter scores'!G23</f>
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="P8" s="2" t="str">
         <f>'Enter scores'!H23</f>
@@ -3854,7 +3833,7 @@
       </c>
       <c r="S8" s="14">
         <f>'Enter scores'!K23</f>
-        <v>900</v>
+        <v>9</v>
       </c>
       <c r="W8" s="2">
         <v>4</v>
@@ -3867,11 +3846,11 @@
       <c r="Z8" s="30"/>
       <c r="AA8" s="17">
         <f>VLOOKUP(W8,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>3.0000000000116001</v>
+        <v>3.0000000000017</v>
       </c>
       <c r="AB8" s="1">
         <f>VLOOKUP(W8,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3887,11 +3866,11 @@
       <c r="Z9" s="30"/>
       <c r="AA9" s="17">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.9999999999893001</v>
+        <v>2.9999999999992002</v>
       </c>
       <c r="AB9" s="1">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-107</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3901,17 +3880,17 @@
       </c>
       <c r="X10" s="28" t="str">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>ESR and Friends</v>
+        <v>One Team One Meme</v>
       </c>
       <c r="Y10" s="29"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="17">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.0000000000109002</v>
+        <v>2.0000000000006</v>
       </c>
       <c r="AB10" s="1">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3921,17 +3900,17 @@
       </c>
       <c r="X11" s="28" t="str">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>One Team One Meme</v>
+        <v>ESR and Friends</v>
       </c>
       <c r="Y11" s="29"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="17">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>1.9999999999907001</v>
+        <v>2.0000000000000999</v>
       </c>
       <c r="AB11" s="1">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4014,11 +3993,11 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="17">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>1.9999999999882001</v>
+        <v>1.9999999999982001</v>
       </c>
       <c r="AB12" s="1">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-118</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5367,7 +5346,7 @@
       </c>
       <c r="E62" s="29" t="str">
         <f>'Enter scores'!E99</f>
-        <v>One Team One Meme</v>
+        <v>ESR and Friends</v>
       </c>
       <c r="F62" s="29">
         <f>'Enter scores'!F99</f>
@@ -5396,7 +5375,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="29" t="str">
         <f>'Enter scores'!E105</f>
-        <v>Frizoo</v>
+        <v>Vending Machine</v>
       </c>
       <c r="N62" s="29">
         <f>'Enter scores'!F105</f>
@@ -5464,7 +5443,7 @@
       </c>
       <c r="I64" s="29" t="str">
         <f>'Enter scores'!I101</f>
-        <v>ESR and Friends</v>
+        <v>One Team One Meme</v>
       </c>
       <c r="J64" s="29">
         <f>'Enter scores'!J101</f>
@@ -5493,7 +5472,7 @@
       </c>
       <c r="Q64" s="29" t="str">
         <f>'Enter scores'!I107</f>
-        <v>Vending Machine</v>
+        <v>Frizoo</v>
       </c>
       <c r="R64" s="29">
         <f>'Enter scores'!J107</f>
@@ -5507,6 +5486,94 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="96">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="M60:S60"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="Q64:R64"/>
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="X11:Z11"/>
     <mergeCell ref="X12:Z12"/>
@@ -5515,124 +5582,36 @@
     <mergeCell ref="X7:Z7"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="M60:S60"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EY Tigers">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="EY Tigers">
       <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Huckhunters">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="Huckhunters">
       <formula>NOT(ISERROR(SEARCH("Huckhunters",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Vending Machine">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Vending Machine">
       <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="One Team One Meme">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="One Team One Meme">
       <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="ESR and Friends">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="ESR and Friends">
       <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Martians">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Martians">
       <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Frizoo">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Frizoo">
       <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACUL MASTER Draw Spring 2018.xlsx
+++ b/ACUL MASTER Draw Spring 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\002 Auckland Corporate Ultimate League\league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0914BD6-1DC7-410D-AF5D-DE1EA8BCE04D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A78DCA-8038-41AE-85AB-594DB75F3162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
   <si>
     <t>Court 1</t>
   </si>
@@ -73,6 +73,33 @@
   </si>
   <si>
     <t>Add conditional formatting for new teams, in both Enter scores and Display Draw</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
   </si>
 </sst>
 </file>
@@ -420,7 +447,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA6E2EF"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -434,7 +489,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFA6E2EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -448,42 +545,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA6E2EF"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -497,42 +559,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFA6E2EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,30 +1078,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:U107"/>
+  <dimension ref="B1:W108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="7" max="8" width="9.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="11" max="12" width="9.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.140625" style="1" hidden="1"/>
+    <col min="23" max="23" width="20.140625" style="1" hidden="1"/>
+    <col min="24" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1089,9 +1122,16 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="2">
-        <f>RANK(I3,$I$3:$I$10)</f>
-        <v>8</v>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C9" si="0">VLOOKUP(B3, $E$3:$F$10, 2, FALSE)</f>
+        <v>HuckHunters</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>CHOOSE(RANK(I3,$I$3:$I$10), "1st", "2nd", "3rd", "4th", "5th", "6th", "7th", "8th")</f>
+        <v>8th</v>
       </c>
       <c r="F3" s="22" t="str">
         <f>Cover!B3</f>
@@ -1104,14 +1144,21 @@
         <v>1.9999999999982001</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J10" si="0">(SUMIF(O:O,F3,P:P))+(SUMIF(M:M,F3,N:N))</f>
+        <f t="shared" ref="J3:J10" si="1">(SUMIF(O:O,F3,P:P))+(SUMIF(M:M,F3,N:N))</f>
         <v>-18</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="2">
-        <f>RANK(I4,$I$3:$I$10)</f>
-        <v>5</v>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Frizoo</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ref="E4:E10" si="2">CHOOSE(RANK(I4,$I$3:$I$10), "1st", "2nd", "3rd", "4th", "5th", "6th", "7th", "8th")</f>
+        <v>5th</v>
       </c>
       <c r="F4" s="28" t="str">
         <f>Cover!B4</f>
@@ -1120,18 +1167,25 @@
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I10" si="1">IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F4)+(J4/10000000000000)))</f>
+        <f t="shared" ref="I4:I10" si="3">IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F4)+(J4/10000000000000)))</f>
         <v>2.9999999999992002</v>
       </c>
       <c r="J4" s="17">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E5" s="2">
-        <f>RANK(I5,$I$3:$I$10)</f>
-        <v>2</v>
+        <v>Vending Machine</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2nd</v>
       </c>
       <c r="F5" s="28" t="str">
         <f>Cover!B5</f>
@@ -1140,18 +1194,25 @@
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
       <c r="I5" s="20">
+        <f t="shared" si="3"/>
+        <v>4.0000000000003002</v>
+      </c>
+      <c r="J5" s="17">
         <f t="shared" si="1"/>
-        <v>4.0000000000003002</v>
-      </c>
-      <c r="J5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
-        <f>RANK(I6,$I$3:$I$10)</f>
-        <v>6</v>
+        <v>Martians</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>6th</v>
       </c>
       <c r="F6" s="28" t="str">
         <f>Cover!B6</f>
@@ -1160,18 +1221,25 @@
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
       <c r="I6" s="20">
+        <f t="shared" si="3"/>
+        <v>2.0000000000006</v>
+      </c>
+      <c r="J6" s="17">
         <f t="shared" si="1"/>
-        <v>2.0000000000006</v>
-      </c>
-      <c r="J6" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="2">
-        <f t="shared" ref="E7:E10" si="2">RANK(I7,$I$3:$I$10)</f>
-        <v>1</v>
+        <v>GHD</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1st</v>
       </c>
       <c r="F7" s="28" t="str">
         <f>Cover!B7</f>
@@ -1180,18 +1248,25 @@
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
       <c r="I7" s="20">
+        <f t="shared" si="3"/>
+        <v>4.0000000000028004</v>
+      </c>
+      <c r="J7" s="17">
         <f t="shared" si="1"/>
-        <v>4.0000000000028004</v>
-      </c>
-      <c r="J7" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="2">
+        <v>One Team One Meme</v>
+      </c>
+      <c r="E8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3rd</v>
       </c>
       <c r="F8" s="28" t="str">
         <f>Cover!B8</f>
@@ -1200,18 +1275,25 @@
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
       <c r="I8" s="20">
+        <f t="shared" si="3"/>
+        <v>3.9999999999971001</v>
+      </c>
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
-        <v>3.9999999999971001</v>
-      </c>
-      <c r="J8" s="17">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="2">
+        <v>ESR and Friends</v>
+      </c>
+      <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7th</v>
       </c>
       <c r="F9" s="28" t="str">
         <f>Cover!B9</f>
@@ -1220,18 +1302,25 @@
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="20">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000999</v>
+      </c>
+      <c r="J9" s="17">
         <f t="shared" si="1"/>
-        <v>2.0000000000000999</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="2">
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>VLOOKUP(B10, $E$3:$F$10, 2, FALSE)</f>
+        <v>EY Tigers</v>
+      </c>
+      <c r="E10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4th</v>
       </c>
       <c r="F10" s="25" t="str">
         <f>Cover!B10</f>
@@ -1240,14 +1329,15 @@
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
       <c r="I10" s="20">
+        <f t="shared" si="3"/>
+        <v>3.0000000000017</v>
+      </c>
+      <c r="J10" s="17">
         <f t="shared" si="1"/>
-        <v>3.0000000000017</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31">
@@ -1318,11 +1408,11 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1" t="str">
-        <f t="shared" ref="M16:M79" si="3">IF((G16+K16)=0,"",IF(G16&gt;K16,E16,I16))</f>
+        <f t="shared" ref="M16:M79" si="4">IF((G16+K16)=0,"",IF(G16&gt;K16,E16,I16))</f>
         <v/>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" ref="O16:O79" si="4">IF((G16+K16)=0,"",IF(E16=M16,I16,E16))</f>
+        <f t="shared" ref="O16:O79" si="5">IF((G16+K16)=0,"",IF(E16=M16,I16,E16))</f>
         <v/>
       </c>
     </row>
@@ -1351,7 +1441,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Vending Machine</v>
       </c>
       <c r="N17" s="1">
@@ -1359,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GHD</v>
       </c>
       <c r="P17" s="1">
@@ -1370,11 +1460,11 @@
     <row r="18" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="19"/>
       <c r="M18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1390,22 +1480,22 @@
       <c r="J19" s="35"/>
       <c r="K19" s="36"/>
       <c r="M19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="19"/>
       <c r="M20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1433,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ESR and Friends</v>
       </c>
       <c r="N21" s="1">
@@ -1441,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Frizoo</v>
       </c>
       <c r="P21" s="1">
@@ -1459,11 +1549,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="M22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1491,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Martians</v>
       </c>
       <c r="N23" s="1">
@@ -1499,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P23" s="1">
@@ -1510,11 +1600,11 @@
     <row r="24" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="19"/>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1534,22 +1624,22 @@
       <c r="J25" s="35"/>
       <c r="K25" s="36"/>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="19"/>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1574,7 +1664,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="5"/>
       <c r="M27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N27" s="1">
@@ -1582,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P27" s="1">
@@ -1601,11 +1691,11 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S28" s="15"/>
@@ -1633,7 +1723,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="5"/>
       <c r="M29" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N29" s="1">
@@ -1641,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P29" s="1">
@@ -1654,11 +1744,11 @@
     </row>
     <row r="30" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M30" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S30" s="16"/>
@@ -1677,11 +1767,11 @@
       <c r="J31" s="35"/>
       <c r="K31" s="36"/>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S31" s="16"/>
@@ -1691,11 +1781,11 @@
     <row r="32" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="19"/>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S32" s="16"/>
@@ -1722,7 +1812,7 @@
       <c r="J33" s="29"/>
       <c r="K33" s="14"/>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N33" s="1">
@@ -1730,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P33" s="1">
@@ -1751,11 +1841,11 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="M34" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S34" s="16"/>
@@ -1782,7 +1872,7 @@
       <c r="J35" s="29"/>
       <c r="K35" s="14"/>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N35" s="1">
@@ -1790,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P35" s="1">
@@ -1803,11 +1893,11 @@
     </row>
     <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M36" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S36" s="16"/>
@@ -1830,11 +1920,11 @@
       <c r="J37" s="35"/>
       <c r="K37" s="36"/>
       <c r="M37" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S37" s="3"/>
@@ -1843,11 +1933,11 @@
     </row>
     <row r="38" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M38" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1876,7 +1966,7 @@
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>EY Tigers</v>
       </c>
       <c r="N39" s="1">
@@ -1884,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P39" s="1">
@@ -1903,11 +1993,11 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1936,7 +2026,7 @@
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Frizoo</v>
       </c>
       <c r="N41" s="1">
@@ -1944,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GHD</v>
       </c>
       <c r="P41" s="1">
@@ -1955,11 +2045,11 @@
     <row r="42" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="19"/>
       <c r="M42" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1975,22 +2065,22 @@
       <c r="J43" s="35"/>
       <c r="K43" s="36"/>
       <c r="M43" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="19"/>
       <c r="M44" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2018,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Vending Machine</v>
       </c>
       <c r="N45" s="1">
@@ -2026,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Martians</v>
       </c>
       <c r="P45" s="1">
@@ -2044,11 +2134,11 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="M46" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2076,7 +2166,7 @@
         <v>17</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>HuckHunters</v>
       </c>
       <c r="N47" s="1">
@@ -2084,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P47" s="1">
@@ -2095,11 +2185,11 @@
     <row r="48" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="19"/>
       <c r="M48" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2119,22 +2209,22 @@
       <c r="J49" s="35"/>
       <c r="K49" s="36"/>
       <c r="M49" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="19"/>
       <c r="M50" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2163,7 +2253,7 @@
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>GHD</v>
       </c>
       <c r="N51" s="1">
@@ -2171,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P51" s="1">
@@ -2190,11 +2280,11 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2223,7 +2313,7 @@
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Frizoo</v>
       </c>
       <c r="N53" s="1">
@@ -2231,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Martians</v>
       </c>
       <c r="P53" s="1">
@@ -2241,11 +2331,11 @@
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M54" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O54" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2261,22 +2351,22 @@
       <c r="J55" s="35"/>
       <c r="K55" s="36"/>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="19"/>
       <c r="M56" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O56" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2304,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ESR and Friends</v>
       </c>
       <c r="N57" s="1">
@@ -2312,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EY Tigers</v>
       </c>
       <c r="P57" s="1">
@@ -2330,11 +2420,11 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="M58" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O58" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2362,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>HuckHunters</v>
       </c>
       <c r="N59" s="1">
@@ -2370,7 +2460,7 @@
         <v>25</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Vending Machine</v>
       </c>
       <c r="P59" s="1">
@@ -2380,11 +2470,11 @@
     </row>
     <row r="60" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M60" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O60" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2404,21 +2494,21 @@
       <c r="J61" s="35"/>
       <c r="K61" s="36"/>
       <c r="M61" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O61" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M62" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O62" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2447,7 +2537,7 @@
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Martians</v>
       </c>
       <c r="N63" s="1">
@@ -2455,7 +2545,7 @@
         <v>11</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GHD</v>
       </c>
       <c r="P63" s="1">
@@ -2474,11 +2564,11 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2507,7 +2597,7 @@
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>One Team One Meme</v>
       </c>
       <c r="N65" s="1">
@@ -2515,7 +2605,7 @@
         <v>7</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P65" s="1">
@@ -2526,11 +2616,11 @@
     <row r="66" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="19"/>
       <c r="M66" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O66" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2546,22 +2636,22 @@
       <c r="J67" s="35"/>
       <c r="K67" s="36"/>
       <c r="M67" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O67" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="19"/>
       <c r="M68" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O68" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2589,7 +2679,7 @@
         <v>14</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Frizoo</v>
       </c>
       <c r="N69" s="1">
@@ -2597,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>HuckHunters</v>
       </c>
       <c r="P69" s="1">
@@ -2615,11 +2705,11 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="M70" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O70" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2647,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>EY Tigers</v>
       </c>
       <c r="N71" s="1">
@@ -2655,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Vending Machine</v>
       </c>
       <c r="P71" s="1">
@@ -2666,11 +2756,11 @@
     <row r="72" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D72" s="19"/>
       <c r="M72" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O72" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2690,22 +2780,22 @@
       <c r="J73" s="35"/>
       <c r="K73" s="36"/>
       <c r="M73" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O73" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="19"/>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O74" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2734,7 +2824,7 @@
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>GHD</v>
       </c>
       <c r="N75" s="1">
@@ -2742,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P75" s="1">
@@ -2761,11 +2851,11 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O76" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2794,7 +2884,7 @@
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>HuckHunters</v>
       </c>
       <c r="N77" s="1">
@@ -2802,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Martians</v>
       </c>
       <c r="P77" s="1">
@@ -2813,11 +2903,11 @@
     <row r="78" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="19"/>
       <c r="M78" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O78" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2833,22 +2923,22 @@
       <c r="J79" s="35"/>
       <c r="K79" s="36"/>
       <c r="M79" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O79" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="M80" s="1" t="str">
-        <f t="shared" ref="M80:M95" si="5">IF((G80+K80)=0,"",IF(G80&gt;K80,E80,I80))</f>
+        <f t="shared" ref="M80:M95" si="6">IF((G80+K80)=0,"",IF(G80&gt;K80,E80,I80))</f>
         <v/>
       </c>
       <c r="O80" s="1" t="str">
-        <f t="shared" ref="O80:O95" si="6">IF((G80+K80)=0,"",IF(E80=M80,I80,E80))</f>
+        <f t="shared" ref="O80:O95" si="7">IF((G80+K80)=0,"",IF(E80=M80,I80,E80))</f>
         <v/>
       </c>
     </row>
@@ -2876,15 +2966,15 @@
         <v>5</v>
       </c>
       <c r="M81" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Vending Machine</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81:N95" si="7">IF(G81&gt;K81,G81-K81,K81-G81)</f>
+        <f t="shared" ref="N81:N95" si="8">IF(G81&gt;K81,G81-K81,K81-G81)</f>
         <v>2</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P81" s="1">
@@ -2902,11 +2992,11 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="M82" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O82" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2934,15 +3024,15 @@
         <v>9</v>
       </c>
       <c r="M83" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Frizoo</v>
       </c>
       <c r="N83" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O83" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>EY Tigers</v>
       </c>
       <c r="P83" s="1">
@@ -2953,11 +3043,11 @@
     <row r="84" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="M84" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O84" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2977,22 +3067,22 @@
       <c r="J85" s="35"/>
       <c r="K85" s="36"/>
       <c r="M85" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O85" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="M86" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O86" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3021,15 +3111,15 @@
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GHD</v>
       </c>
       <c r="N87" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="O87" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O87" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>HuckHunters</v>
       </c>
       <c r="P87" s="1">
@@ -3048,11 +3138,11 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O88" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3081,15 +3171,15 @@
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Vending Machine</v>
       </c>
       <c r="N89" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O89" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O89" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P89" s="1">
@@ -3100,11 +3190,11 @@
     <row r="90" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="19"/>
       <c r="M90" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O90" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3120,22 +3210,22 @@
       <c r="J91" s="35"/>
       <c r="K91" s="36"/>
       <c r="M91" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O91" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="19"/>
       <c r="M92" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O92" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3163,15 +3253,15 @@
         <v>14</v>
       </c>
       <c r="M93" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Martians</v>
       </c>
       <c r="N93" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="O93" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="O93" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>EY Tigers</v>
       </c>
       <c r="P93" s="1">
@@ -3189,11 +3279,11 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="M94" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O94" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3221,15 +3311,15 @@
         <v>15</v>
       </c>
       <c r="M95" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>One Team One Meme</v>
       </c>
       <c r="N95" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="O95" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="O95" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>Frizoo</v>
       </c>
       <c r="P95" s="1">
@@ -3264,7 +3354,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="E99" s="29" t="str">
-        <f>VLOOKUP(7,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("7th",$E$3:$H$10,2,FALSE)</f>
         <v>ESR and Friends</v>
       </c>
       <c r="F99" s="29"/>
@@ -3275,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="I99" s="29" t="str">
-        <f>VLOOKUP(8,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("8th",$E$3:$H$10,2,FALSE)</f>
         <v>EY Tigers</v>
       </c>
       <c r="J99" s="29"/>
@@ -3300,7 +3390,7 @@
         <v>0.3125</v>
       </c>
       <c r="E101" s="29" t="str">
-        <f>VLOOKUP(5,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("5th",$E$3:$H$10,2,FALSE)</f>
         <v>GHD</v>
       </c>
       <c r="F101" s="29"/>
@@ -3311,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="I101" s="29" t="str">
-        <f>VLOOKUP(6,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("6th",$E$3:$H$10,2,FALSE)</f>
         <v>One Team One Meme</v>
       </c>
       <c r="J101" s="29"/>
@@ -3338,7 +3428,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="E105" s="29" t="str">
-        <f>VLOOKUP(3,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("3rd",$E$3:$H$10,2,FALSE)</f>
         <v>Vending Machine</v>
       </c>
       <c r="F105" s="29"/>
@@ -3349,7 +3439,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="29" t="str">
-        <f>VLOOKUP(4,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("4th",$E$3:$H$10,2,FALSE)</f>
         <v>Martians</v>
       </c>
       <c r="J105" s="29"/>
@@ -3372,7 +3462,7 @@
         <v>0.3125</v>
       </c>
       <c r="E107" s="29" t="str">
-        <f>VLOOKUP(1,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("1st",$E$3:$H$10,2,FALSE)</f>
         <v>HuckHunters</v>
       </c>
       <c r="F107" s="29"/>
@@ -3383,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="29" t="str">
-        <f>VLOOKUP(2,$E$3:$H$10,2,FALSE)</f>
+        <f>VLOOKUP("2nd",$E$3:$H$10,2,FALSE)</f>
         <v>Frizoo</v>
       </c>
       <c r="J107" s="29"/>
@@ -3391,8 +3481,89 @@
         <v>14</v>
       </c>
     </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="E103:K103"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:K85"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="E67:K67"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B37:D37"/>
@@ -3409,125 +3580,46 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="E19:K19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="E67:K67"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:K49"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:K85"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="E103:K103"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="EY Tigers">
-      <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
+  <conditionalFormatting sqref="A1:XFD1 N2:XFD2 A2:L2 A3:XFD1048576">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Court 2">
+      <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Court 1">
+      <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Martians">
+      <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="ESR and Friends">
+      <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Vending Machine">
+      <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="HuckHunters">
+      <formula>NOT(ISERROR(SEARCH("HuckHunters",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="One Team One Meme">
+      <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Frizoo">
+      <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Frizoo">
-      <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="One Team One Meme">
-      <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="HuckHunters">
-      <formula>NOT(ISERROR(SEARCH("HuckHunters",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Vending Machine">
-      <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="ESR and Friends">
-      <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Martians">
-      <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Court 1">
-      <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Court 2">
-      <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="EY Tigers">
+      <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:K13">
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3643,19 +3735,19 @@
       <c r="W5" s="2">
         <v>1</v>
       </c>
-      <c r="X5" s="22" t="str">
+      <c r="X5" s="22" t="e">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>HuckHunters</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="23"/>
       <c r="Z5" s="24"/>
-      <c r="AA5" s="17">
+      <c r="AA5" s="17" t="e">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>4.0000000000028004</v>
-      </c>
-      <c r="AB5" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB5" s="1" t="e">
         <f>VLOOKUP(W5,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>28</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3723,19 +3815,19 @@
       <c r="W6" s="2">
         <v>2</v>
       </c>
-      <c r="X6" s="28" t="str">
+      <c r="X6" s="28" t="e">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>Frizoo</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="30"/>
-      <c r="AA6" s="17">
+      <c r="AA6" s="17" t="e">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>4.0000000000003002</v>
-      </c>
-      <c r="AB6" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB6" s="1" t="e">
         <f>VLOOKUP(W6,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3758,19 +3850,19 @@
       <c r="W7" s="2">
         <v>3</v>
       </c>
-      <c r="X7" s="28" t="str">
+      <c r="X7" s="28" t="e">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>Vending Machine</v>
+        <v>#N/A</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="30"/>
-      <c r="AA7" s="17">
+      <c r="AA7" s="17" t="e">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>3.9999999999971001</v>
-      </c>
-      <c r="AB7" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB7" s="1" t="e">
         <f>VLOOKUP(W7,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-29</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3838,19 +3930,19 @@
       <c r="W8" s="2">
         <v>4</v>
       </c>
-      <c r="X8" s="28" t="str">
+      <c r="X8" s="28" t="e">
         <f>VLOOKUP(W8,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>Martians</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="30"/>
-      <c r="AA8" s="17">
+      <c r="AA8" s="17" t="e">
         <f>VLOOKUP(W8,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>3.0000000000017</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB8" s="1" t="e">
         <f>VLOOKUP(W8,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>17</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3858,19 +3950,19 @@
       <c r="W9" s="2">
         <v>5</v>
       </c>
-      <c r="X9" s="28" t="str">
+      <c r="X9" s="28" t="e">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>GHD</v>
+        <v>#N/A</v>
       </c>
       <c r="Y9" s="29"/>
       <c r="Z9" s="30"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="17" t="e">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.9999999999992002</v>
-      </c>
-      <c r="AB9" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB9" s="1" t="e">
         <f>VLOOKUP(W9,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-8</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3878,19 +3970,19 @@
       <c r="W10" s="2">
         <v>6</v>
       </c>
-      <c r="X10" s="28" t="str">
+      <c r="X10" s="28" t="e">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>One Team One Meme</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="29"/>
       <c r="Z10" s="30"/>
-      <c r="AA10" s="17">
+      <c r="AA10" s="17" t="e">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.0000000000006</v>
-      </c>
-      <c r="AB10" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB10" s="1" t="e">
         <f>VLOOKUP(W10,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3898,19 +3990,19 @@
       <c r="W11" s="2">
         <v>7</v>
       </c>
-      <c r="X11" s="28" t="str">
+      <c r="X11" s="28" t="e">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>ESR and Friends</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="29"/>
       <c r="Z11" s="30"/>
-      <c r="AA11" s="17">
+      <c r="AA11" s="17" t="e">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>2.0000000000000999</v>
-      </c>
-      <c r="AB11" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" s="1" t="e">
         <f>VLOOKUP(W11,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3985,19 +4077,19 @@
       <c r="W12" s="2">
         <v>8</v>
       </c>
-      <c r="X12" s="25" t="str">
+      <c r="X12" s="25" t="e">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,2,FALSE)</f>
-        <v>EY Tigers</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
-      <c r="AA12" s="17">
+      <c r="AA12" s="17" t="e">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,5,FALSE)</f>
-        <v>1.9999999999982001</v>
-      </c>
-      <c r="AB12" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="AB12" s="1" t="e">
         <f>VLOOKUP(W12,'Enter scores'!$E$3:$J$10,6,FALSE)</f>
-        <v>-18</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5486,20 +5578,80 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="M60:S60"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q22:R22"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="M14:N14"/>
@@ -5508,111 +5660,51 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="M60:S60"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Court 2">
-      <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Frizoo">
+      <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Martians">
+      <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ESR and Friends">
+      <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="One Team One Meme">
+      <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Vending Machine">
+      <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="GHD">
+      <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Huckhunters">
+      <formula>NOT(ISERROR(SEARCH("Huckhunters",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="EY Tigers">
+      <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="EY Tigers">
-      <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="Huckhunters">
-      <formula>NOT(ISERROR(SEARCH("Huckhunters",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="GHD">
-      <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Vending Machine">
-      <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="One Team One Meme">
-      <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="ESR and Friends">
-      <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Martians">
-      <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Frizoo">
-      <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Court 2">
+      <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACUL MASTER Draw Spring 2018.xlsx
+++ b/ACUL MASTER Draw Spring 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\002 Auckland Corporate Ultimate League\league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A78DCA-8038-41AE-85AB-594DB75F3162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84FF7C4-D079-4558-AC43-4D054321C936}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>Court 1</t>
   </si>
@@ -429,7 +429,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6E2EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6E2EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1078,16 +1218,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:W108"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="1" customWidth="1"/>
@@ -1103,9 +1244,9 @@
     <col min="24" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1121,13 +1262,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C9" si="0">VLOOKUP(B3, $E$3:$F$10, 2, FALSE)</f>
+      <c r="B3" s="5" t="str">
+        <f t="shared" ref="B3:C9" si="0">VLOOKUP(A3, $E$3:$F$10, 2, FALSE)</f>
         <v>HuckHunters</v>
+      </c>
+      <c r="C3" s="2">
+        <f>VLOOKUP(A3, $E$3:$I$10, 5, FALSE)</f>
+        <v>4.0000000000028004</v>
+      </c>
+      <c r="D3" s="2">
+        <f>VLOOKUP(A3, $E$3:$J$10, 6, FALSE)</f>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>CHOOSE(RANK(I3,$I$3:$I$10), "1st", "2nd", "3rd", "4th", "5th", "6th", "7th", "8th")</f>
@@ -1148,16 +1297,24 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="B4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Frizoo</v>
       </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C10" si="2">VLOOKUP(A4, $E$3:$I$10, 5, FALSE)</f>
+        <v>4.0000000000003002</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D10" si="3">VLOOKUP(A4, $E$3:$J$10, 6, FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:E10" si="2">CHOOSE(RANK(I4,$I$3:$I$10), "1st", "2nd", "3rd", "4th", "5th", "6th", "7th", "8th")</f>
+        <f t="shared" ref="E4:E10" si="4">CHOOSE(RANK(I4,$I$3:$I$10), "1st", "2nd", "3rd", "4th", "5th", "6th", "7th", "8th")</f>
         <v>5th</v>
       </c>
       <c r="F4" s="28" t="str">
@@ -1167,7 +1324,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I10" si="3">IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F4)+(J4/10000000000000)))</f>
+        <f t="shared" ref="I4:I10" si="5">IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F4)+(J4/10000000000000)))</f>
         <v>2.9999999999992002</v>
       </c>
       <c r="J4" s="17">
@@ -1175,16 +1332,24 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vending Machine</v>
       </c>
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9999999999971001</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="3"/>
+        <v>-29</v>
+      </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2nd</v>
       </c>
       <c r="F5" s="28" t="str">
@@ -1194,7 +1359,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
       <c r="I5" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000003002</v>
       </c>
       <c r="J5" s="17">
@@ -1202,16 +1367,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Martians</v>
       </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0000000000017</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6th</v>
       </c>
       <c r="F6" s="28" t="str">
@@ -1221,7 +1394,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
       <c r="I6" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000006</v>
       </c>
       <c r="J6" s="17">
@@ -1229,16 +1402,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GHD</v>
       </c>
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9999999999992002</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1st</v>
       </c>
       <c r="F7" s="28" t="str">
@@ -1248,7 +1429,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
       <c r="I7" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000028004</v>
       </c>
       <c r="J7" s="17">
@@ -1256,16 +1437,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>One Team One Meme</v>
       </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0000000000006</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3rd</v>
       </c>
       <c r="F8" s="28" t="str">
@@ -1275,7 +1464,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
       <c r="I8" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999971001</v>
       </c>
       <c r="J8" s="17">
@@ -1283,16 +1472,24 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ESR and Friends</v>
       </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000999</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7th</v>
       </c>
       <c r="F9" s="28" t="str">
@@ -1302,7 +1499,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000999</v>
       </c>
       <c r="J9" s="17">
@@ -1310,16 +1507,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f>VLOOKUP(B10, $E$3:$F$10, 2, FALSE)</f>
+      <c r="B10" s="5" t="str">
+        <f>VLOOKUP(A10, $E$3:$F$10, 2, FALSE)</f>
         <v>EY Tigers</v>
       </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9999999999982001</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4th</v>
       </c>
       <c r="F10" s="25" t="str">
@@ -1329,7 +1534,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
       <c r="I10" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000017</v>
       </c>
       <c r="J10" s="17">
@@ -1337,9 +1542,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31">
         <v>43360</v>
       </c>
@@ -1355,8 +1560,8 @@
       <c r="J13" s="35"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="18">
         <v>0.27083333333333331</v>
       </c>
@@ -1397,7 +1602,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="19"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1408,11 +1613,11 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1" t="str">
-        <f t="shared" ref="M16:M79" si="4">IF((G16+K16)=0,"",IF(G16&gt;K16,E16,I16))</f>
+        <f t="shared" ref="M16:M79" si="6">IF((G16+K16)=0,"",IF(G16&gt;K16,E16,I16))</f>
         <v/>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" ref="O16:O79" si="5">IF((G16+K16)=0,"",IF(E16=M16,I16,E16))</f>
+        <f t="shared" ref="O16:O79" si="7">IF((G16+K16)=0,"",IF(E16=M16,I16,E16))</f>
         <v/>
       </c>
     </row>
@@ -1441,7 +1646,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Vending Machine</v>
       </c>
       <c r="N17" s="1">
@@ -1449,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GHD</v>
       </c>
       <c r="P17" s="1">
@@ -1460,11 +1665,11 @@
     <row r="18" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="19"/>
       <c r="M18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1480,22 +1685,22 @@
       <c r="J19" s="35"/>
       <c r="K19" s="36"/>
       <c r="M19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="19"/>
       <c r="M20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1523,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ESR and Friends</v>
       </c>
       <c r="N21" s="1">
@@ -1531,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Frizoo</v>
       </c>
       <c r="P21" s="1">
@@ -1549,11 +1754,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="M22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1581,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Martians</v>
       </c>
       <c r="N23" s="1">
@@ -1589,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P23" s="1">
@@ -1600,11 +1805,11 @@
     <row r="24" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="19"/>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1624,22 +1829,22 @@
       <c r="J25" s="35"/>
       <c r="K25" s="36"/>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="19"/>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1664,7 +1869,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="5"/>
       <c r="M27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N27" s="1">
@@ -1672,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P27" s="1">
@@ -1691,11 +1896,11 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S28" s="15"/>
@@ -1723,7 +1928,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="5"/>
       <c r="M29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N29" s="1">
@@ -1731,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P29" s="1">
@@ -1744,11 +1949,11 @@
     </row>
     <row r="30" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S30" s="16"/>
@@ -1767,11 +1972,11 @@
       <c r="J31" s="35"/>
       <c r="K31" s="36"/>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O31" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S31" s="16"/>
@@ -1781,11 +1986,11 @@
     <row r="32" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="19"/>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S32" s="16"/>
@@ -1812,7 +2017,7 @@
       <c r="J33" s="29"/>
       <c r="K33" s="14"/>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N33" s="1">
@@ -1820,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P33" s="1">
@@ -1841,11 +2046,11 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="M34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S34" s="16"/>
@@ -1872,7 +2077,7 @@
       <c r="J35" s="29"/>
       <c r="K35" s="14"/>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N35" s="1">
@@ -1880,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P35" s="1">
@@ -1893,11 +2098,11 @@
     </row>
     <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S36" s="16"/>
@@ -1920,11 +2125,11 @@
       <c r="J37" s="35"/>
       <c r="K37" s="36"/>
       <c r="M37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S37" s="3"/>
@@ -1933,11 +2138,11 @@
     </row>
     <row r="38" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O38" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1966,7 +2171,7 @@
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>EY Tigers</v>
       </c>
       <c r="N39" s="1">
@@ -1974,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P39" s="1">
@@ -1993,11 +2198,11 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O40" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2026,7 +2231,7 @@
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Frizoo</v>
       </c>
       <c r="N41" s="1">
@@ -2034,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GHD</v>
       </c>
       <c r="P41" s="1">
@@ -2045,11 +2250,11 @@
     <row r="42" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="19"/>
       <c r="M42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O42" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2065,22 +2270,22 @@
       <c r="J43" s="35"/>
       <c r="K43" s="36"/>
       <c r="M43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O43" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="19"/>
       <c r="M44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2108,7 +2313,7 @@
         <v>17</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Vending Machine</v>
       </c>
       <c r="N45" s="1">
@@ -2116,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Martians</v>
       </c>
       <c r="P45" s="1">
@@ -2134,11 +2339,11 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="M46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O46" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2166,7 +2371,7 @@
         <v>17</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>HuckHunters</v>
       </c>
       <c r="N47" s="1">
@@ -2174,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P47" s="1">
@@ -2185,11 +2390,11 @@
     <row r="48" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="19"/>
       <c r="M48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O48" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2209,22 +2414,22 @@
       <c r="J49" s="35"/>
       <c r="K49" s="36"/>
       <c r="M49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O49" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="19"/>
       <c r="M50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O50" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2253,7 +2458,7 @@
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>GHD</v>
       </c>
       <c r="N51" s="1">
@@ -2261,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P51" s="1">
@@ -2280,11 +2485,11 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O52" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2313,7 +2518,7 @@
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Frizoo</v>
       </c>
       <c r="N53" s="1">
@@ -2321,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Martians</v>
       </c>
       <c r="P53" s="1">
@@ -2331,11 +2536,11 @@
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M54" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2351,22 +2556,22 @@
       <c r="J55" s="35"/>
       <c r="K55" s="36"/>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O55" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="19"/>
       <c r="M56" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2394,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ESR and Friends</v>
       </c>
       <c r="N57" s="1">
@@ -2402,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>EY Tigers</v>
       </c>
       <c r="P57" s="1">
@@ -2420,11 +2625,11 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="M58" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O58" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2452,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>HuckHunters</v>
       </c>
       <c r="N59" s="1">
@@ -2460,7 +2665,7 @@
         <v>25</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Vending Machine</v>
       </c>
       <c r="P59" s="1">
@@ -2470,11 +2675,11 @@
     </row>
     <row r="60" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M60" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O60" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2494,21 +2699,21 @@
       <c r="J61" s="35"/>
       <c r="K61" s="36"/>
       <c r="M61" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O61" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M62" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O62" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2537,7 +2742,7 @@
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Martians</v>
       </c>
       <c r="N63" s="1">
@@ -2545,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GHD</v>
       </c>
       <c r="P63" s="1">
@@ -2564,11 +2769,11 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O64" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2597,7 +2802,7 @@
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>One Team One Meme</v>
       </c>
       <c r="N65" s="1">
@@ -2605,7 +2810,7 @@
         <v>7</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P65" s="1">
@@ -2616,11 +2821,11 @@
     <row r="66" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="19"/>
       <c r="M66" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O66" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2636,22 +2841,22 @@
       <c r="J67" s="35"/>
       <c r="K67" s="36"/>
       <c r="M67" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O67" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="19"/>
       <c r="M68" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O68" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2679,7 +2884,7 @@
         <v>14</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Frizoo</v>
       </c>
       <c r="N69" s="1">
@@ -2687,7 +2892,7 @@
         <v>11</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>HuckHunters</v>
       </c>
       <c r="P69" s="1">
@@ -2705,11 +2910,11 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="M70" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O70" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2737,7 +2942,7 @@
         <v>15</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>EY Tigers</v>
       </c>
       <c r="N71" s="1">
@@ -2745,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Vending Machine</v>
       </c>
       <c r="P71" s="1">
@@ -2756,11 +2961,11 @@
     <row r="72" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D72" s="19"/>
       <c r="M72" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O72" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2780,22 +2985,22 @@
       <c r="J73" s="35"/>
       <c r="K73" s="36"/>
       <c r="M73" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O73" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="19"/>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O74" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2824,7 +3029,7 @@
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>GHD</v>
       </c>
       <c r="N75" s="1">
@@ -2832,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P75" s="1">
@@ -2851,11 +3056,11 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O76" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2884,7 +3089,7 @@
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>HuckHunters</v>
       </c>
       <c r="N77" s="1">
@@ -2892,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Martians</v>
       </c>
       <c r="P77" s="1">
@@ -2903,11 +3108,11 @@
     <row r="78" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="19"/>
       <c r="M78" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O78" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2923,22 +3128,22 @@
       <c r="J79" s="35"/>
       <c r="K79" s="36"/>
       <c r="M79" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O79" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="M80" s="1" t="str">
-        <f t="shared" ref="M80:M95" si="6">IF((G80+K80)=0,"",IF(G80&gt;K80,E80,I80))</f>
+        <f t="shared" ref="M80:M95" si="8">IF((G80+K80)=0,"",IF(G80&gt;K80,E80,I80))</f>
         <v/>
       </c>
       <c r="O80" s="1" t="str">
-        <f t="shared" ref="O80:O95" si="7">IF((G80+K80)=0,"",IF(E80=M80,I80,E80))</f>
+        <f t="shared" ref="O80:O95" si="9">IF((G80+K80)=0,"",IF(E80=M80,I80,E80))</f>
         <v/>
       </c>
     </row>
@@ -2966,15 +3171,15 @@
         <v>5</v>
       </c>
       <c r="M81" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Vending Machine</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81:N95" si="8">IF(G81&gt;K81,G81-K81,K81-G81)</f>
+        <f t="shared" ref="N81:N95" si="10">IF(G81&gt;K81,G81-K81,K81-G81)</f>
         <v>2</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>One Team One Meme</v>
       </c>
       <c r="P81" s="1">
@@ -2992,11 +3197,11 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="M82" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O82" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3024,15 +3229,15 @@
         <v>9</v>
       </c>
       <c r="M83" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Frizoo</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O83" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>EY Tigers</v>
       </c>
       <c r="P83" s="1">
@@ -3043,11 +3248,11 @@
     <row r="84" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="M84" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O84" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3067,22 +3272,22 @@
       <c r="J85" s="35"/>
       <c r="K85" s="36"/>
       <c r="M85" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O85" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="M86" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O86" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3111,15 +3316,15 @@
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>GHD</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="O87" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>HuckHunters</v>
       </c>
       <c r="P87" s="1">
@@ -3138,11 +3343,11 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O88" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3171,15 +3376,15 @@
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Vending Machine</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O89" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>ESR and Friends</v>
       </c>
       <c r="P89" s="1">
@@ -3190,11 +3395,11 @@
     <row r="90" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="19"/>
       <c r="M90" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O90" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3210,22 +3415,22 @@
       <c r="J91" s="35"/>
       <c r="K91" s="36"/>
       <c r="M91" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O91" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="19"/>
       <c r="M92" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O92" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3253,15 +3458,15 @@
         <v>14</v>
       </c>
       <c r="M93" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Martians</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="O93" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>EY Tigers</v>
       </c>
       <c r="P93" s="1">
@@ -3279,11 +3484,11 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="M94" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O94" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3311,15 +3516,15 @@
         <v>15</v>
       </c>
       <c r="M95" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>One Team One Meme</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Frizoo</v>
       </c>
       <c r="P95" s="1">
@@ -3581,41 +3786,105 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="E19:K19"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1 N2:XFD2 A2:L2 A3:XFD1048576">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Court 2">
+  <conditionalFormatting sqref="A1:XFD1 N2:XFD2 D2:L2 A11:XFD1048576 A3:B10 A2 E3:XFD10">
+    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Martians">
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Martians">
       <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="ESR and Friends">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="ESR and Friends">
       <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Vending Machine">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Vending Machine">
       <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="HuckHunters">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="HuckHunters">
       <formula>NOT(ISERROR(SEARCH("HuckHunters",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="One Team One Meme">
+    <cfRule type="containsText" dxfId="34" priority="28" operator="containsText" text="One Team One Meme">
       <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Frizoo">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="Frizoo">
       <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="EY Tigers">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="EY Tigers">
       <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:K13">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Court 2">
+      <formula>NOT(ISERROR(SEARCH("Court 2",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Court 1">
+      <formula>NOT(ISERROR(SEARCH("Court 1",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Martians">
+      <formula>NOT(ISERROR(SEARCH("Martians",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="ESR and Friends">
+      <formula>NOT(ISERROR(SEARCH("ESR and Friends",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Vending Machine">
+      <formula>NOT(ISERROR(SEARCH("Vending Machine",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="HuckHunters">
+      <formula>NOT(ISERROR(SEARCH("HuckHunters",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="One Team One Meme">
+      <formula>NOT(ISERROR(SEARCH("One Team One Meme",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Frizoo">
+      <formula>NOT(ISERROR(SEARCH("Frizoo",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="GHD">
+      <formula>NOT(ISERROR(SEARCH("GHD",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="EY Tigers">
+      <formula>NOT(ISERROR(SEARCH("EY Tigers",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Court 2">
+      <formula>NOT(ISERROR(SEARCH("Court 2",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Court 1">
+      <formula>NOT(ISERROR(SEARCH("Court 1",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Martians">
+      <formula>NOT(ISERROR(SEARCH("Martians",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="ESR and Friends">
+      <formula>NOT(ISERROR(SEARCH("ESR and Friends",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Vending Machine">
+      <formula>NOT(ISERROR(SEARCH("Vending Machine",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="HuckHunters">
+      <formula>NOT(ISERROR(SEARCH("HuckHunters",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="One Team One Meme">
+      <formula>NOT(ISERROR(SEARCH("One Team One Meme",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Frizoo">
+      <formula>NOT(ISERROR(SEARCH("Frizoo",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="GHD">
+      <formula>NOT(ISERROR(SEARCH("GHD",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="EY Tigers">
+      <formula>NOT(ISERROR(SEARCH("EY Tigers",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5676,34 +5945,34 @@
     <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Frizoo">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Frizoo">
       <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Martians">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Martians">
       <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ESR and Friends">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="ESR and Friends">
       <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="One Team One Meme">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="One Team One Meme">
       <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Vending Machine">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Vending Machine">
       <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Huckhunters">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Huckhunters">
       <formula>NOT(ISERROR(SEARCH("Huckhunters",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="EY Tigers">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="EY Tigers">
       <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACUL MASTER Draw Spring 2018.xlsx
+++ b/ACUL MASTER Draw Spring 2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\002 Auckland Corporate Ultimate League\league\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\aklcu.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84FF7C4-D079-4558-AC43-4D054321C936}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121542B4-7FC8-4F1D-A828-401A7330A5F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -433,6 +433,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6E2EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -567,76 +637,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA6E2EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:W108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1239,8 +1239,8 @@
     <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="1" hidden="1"/>
-    <col min="23" max="23" width="20.140625" style="1" hidden="1"/>
+    <col min="18" max="22" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -1267,16 +1267,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f t="shared" ref="B3:C9" si="0">VLOOKUP(A3, $E$3:$F$10, 2, FALSE)</f>
-        <v>HuckHunters</v>
+        <f t="shared" ref="B3:B9" si="0">VLOOKUP(A3, $E$3:$F$10, 2, FALSE)</f>
+        <v>Vending Machine</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP(A3, $E$3:$I$10, 5, FALSE)</f>
-        <v>4.0000000000028004</v>
+        <v>4.9999999999989999</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP(A3, $E$3:$J$10, 6, FALSE)</f>
-        <v>28</v>
+        <v>-10</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>CHOOSE(RANK(I3,$I$3:$I$10), "1st", "2nd", "3rd", "4th", "5th", "6th", "7th", "8th")</f>
@@ -1290,11 +1290,11 @@
       <c r="H3" s="24"/>
       <c r="I3" s="20">
         <f>IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F3)+(J3/10000000000000)))</f>
-        <v>1.9999999999982001</v>
+        <v>1.9999999999961999</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" ref="J3:J10" si="1">(SUMIF(O:O,F3,P:P))+(SUMIF(M:M,F3,N:N))</f>
-        <v>-18</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1303,19 +1303,19 @@
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Frizoo</v>
+        <v>HuckHunters</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C10" si="2">VLOOKUP(A4, $E$3:$I$10, 5, FALSE)</f>
-        <v>4.0000000000003002</v>
+        <v>4.0000000000027001</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D10" si="3">VLOOKUP(A4, $E$3:$J$10, 6, FALSE)</f>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" ref="E4:E10" si="4">CHOOSE(RANK(I4,$I$3:$I$10), "1st", "2nd", "3rd", "4th", "5th", "6th", "7th", "8th")</f>
-        <v>5th</v>
+        <v>4th</v>
       </c>
       <c r="F4" s="28" t="str">
         <f>Cover!B4</f>
@@ -1325,11 +1325,11 @@
       <c r="H4" s="30"/>
       <c r="I4" s="20">
         <f t="shared" ref="I4:I10" si="5">IF(($G$15+$K$15+$G$17+$K$17+$G$21+$K$21+$G$23+$K$23)=0,"",(COUNTIF(M:M,F4)+(J4/10000000000000)))</f>
-        <v>2.9999999999992002</v>
+        <v>3.9999999999995</v>
       </c>
       <c r="J4" s="17">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1338,19 +1338,19 @@
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Vending Machine</v>
+        <v>Martians</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="2"/>
-        <v>3.9999999999971001</v>
+        <v>4.0000000000025997</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="3"/>
-        <v>-29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
       <c r="F5" s="28" t="str">
         <f>Cover!B5</f>
@@ -1360,11 +1360,11 @@
       <c r="H5" s="30"/>
       <c r="I5" s="20">
         <f t="shared" si="5"/>
-        <v>4.0000000000003002</v>
+        <v>3.9999999999990998</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1373,15 +1373,15 @@
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Martians</v>
+        <v>GHD</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>3.0000000000017</v>
+        <v>3.9999999999995</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1395,11 +1395,11 @@
       <c r="H6" s="30"/>
       <c r="I6" s="20">
         <f t="shared" si="5"/>
-        <v>2.0000000000006</v>
+        <v>3.0000000000017</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>GHD</v>
+        <v>Frizoo</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="2"/>
-        <v>2.9999999999992002</v>
+        <v>3.9999999999990998</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="3"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1st</v>
+        <v>2nd</v>
       </c>
       <c r="F7" s="28" t="str">
         <f>Cover!B7</f>
@@ -1430,11 +1430,11 @@
       <c r="H7" s="30"/>
       <c r="I7" s="20">
         <f t="shared" si="5"/>
-        <v>4.0000000000028004</v>
+        <v>4.0000000000027001</v>
       </c>
       <c r="J7" s="17">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000006</v>
+        <v>3.0000000000017</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>3rd</v>
+        <v>1st</v>
       </c>
       <c r="F8" s="28" t="str">
         <f>Cover!B8</f>
@@ -1465,11 +1465,11 @@
       <c r="H8" s="30"/>
       <c r="I8" s="20">
         <f t="shared" si="5"/>
-        <v>3.9999999999971001</v>
+        <v>4.9999999999989999</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" si="1"/>
-        <v>-29</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1482,11 +1482,11 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000000999</v>
+        <v>1.9999999999992</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1500,11 +1500,11 @@
       <c r="H9" s="30"/>
       <c r="I9" s="20">
         <f t="shared" si="5"/>
-        <v>2.0000000000000999</v>
+        <v>1.9999999999992</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1517,15 +1517,15 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
-        <v>1.9999999999982001</v>
+        <v>1.9999999999961999</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="3"/>
-        <v>-18</v>
+        <v>-38</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>4th</v>
+        <v>3rd</v>
       </c>
       <c r="F10" s="25" t="str">
         <f>Cover!B10</f>
@@ -1535,11 +1535,11 @@
       <c r="H10" s="27"/>
       <c r="I10" s="20">
         <f t="shared" si="5"/>
-        <v>3.0000000000017</v>
+        <v>4.0000000000025997</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>3</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N15" s="1">
         <f>IF(G15&gt;K15,G15-K15,K15-G15)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O15" s="1" t="str">
         <f>IF((G15+K15)=0,"",IF(E15=M15,I15,E15))</f>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="P15" s="1">
         <f>IF(G15&gt;K15,K15-G15,G15-K15)</f>
-        <v>-11</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>3</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="N17" s="1">
         <f>IF(G17&gt;K17,G17-K17,K17-G17)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="7"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="P17" s="1">
         <f>IF(G17&gt;K17,K17-G17,G17-K17)</f>
-        <v>-1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1857,9 @@
         <v>Frizoo</v>
       </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14">
+        <v>3</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1866,23 +1868,25 @@
         <v>Vending Machine</v>
       </c>
       <c r="J27" s="29"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="14">
+        <v>15</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Vending Machine</v>
       </c>
       <c r="N27" s="1">
         <f>IF(G27&gt;K27,G27-K27,K27-G27)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O27" s="1" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>Frizoo</v>
       </c>
       <c r="P27" s="1">
         <f>IF(G27&gt;K27,K27-G27,G27-K27)</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1916,7 +1920,9 @@
         <v>GHD</v>
       </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14">
+        <v>15</v>
+      </c>
       <c r="H29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1925,23 +1931,25 @@
         <v>EY Tigers</v>
       </c>
       <c r="J29" s="29"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="14">
+        <v>5</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>GHD</v>
       </c>
       <c r="N29" s="1">
         <f>IF(G29&gt;K29,G29-K29,K29-G29)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O29" s="1" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>EY Tigers</v>
       </c>
       <c r="P29" s="1">
         <f>IF(G29&gt;K29,K29-G29,G29-K29)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -2006,7 +2014,9 @@
         <v>One Team One Meme</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="14">
+        <v>16</v>
+      </c>
       <c r="H33" s="2" t="s">
         <v>3</v>
       </c>
@@ -2015,22 +2025,24 @@
         <v>HuckHunters</v>
       </c>
       <c r="J33" s="29"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="14">
+        <v>5</v>
+      </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>One Team One Meme</v>
       </c>
       <c r="N33" s="1">
         <f>IF(G33&gt;K33,G33-K33,K33-G33)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O33" s="1" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>HuckHunters</v>
       </c>
       <c r="P33" s="1">
         <f>IF(G33&gt;K33,K33-G33,G33-K33)</f>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -2066,7 +2078,9 @@
         <v>Martians</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="G35" s="14"/>
+      <c r="G35" s="14">
+        <v>14</v>
+      </c>
       <c r="H35" s="2" t="s">
         <v>3</v>
       </c>
@@ -2075,22 +2089,24 @@
         <v>ESR and Friends</v>
       </c>
       <c r="J35" s="29"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="14">
+        <v>5</v>
+      </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Martians</v>
       </c>
       <c r="N35" s="1">
         <f>IF(G35&gt;K35,G35-K35,K35-G35)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>ESR and Friends</v>
       </c>
       <c r="P35" s="1">
         <f>IF(G35&gt;K35,K35-G35,G35-K35)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
@@ -3596,7 +3612,7 @@
       </c>
       <c r="E101" s="29" t="str">
         <f>VLOOKUP("5th",$E$3:$H$10,2,FALSE)</f>
-        <v>GHD</v>
+        <v>Frizoo</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="14">
@@ -3634,7 +3650,7 @@
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP("3rd",$E$3:$H$10,2,FALSE)</f>
-        <v>Vending Machine</v>
+        <v>Martians</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="14">
@@ -3645,7 +3661,7 @@
       </c>
       <c r="I105" s="29" t="str">
         <f>VLOOKUP("4th",$E$3:$H$10,2,FALSE)</f>
-        <v>Martians</v>
+        <v>GHD</v>
       </c>
       <c r="J105" s="29"/>
       <c r="K105" s="14">
@@ -3668,7 +3684,7 @@
       </c>
       <c r="E107" s="29" t="str">
         <f>VLOOKUP("1st",$E$3:$H$10,2,FALSE)</f>
-        <v>HuckHunters</v>
+        <v>Vending Machine</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="14">
@@ -3679,7 +3695,7 @@
       </c>
       <c r="I107" s="29" t="str">
         <f>VLOOKUP("2nd",$E$3:$H$10,2,FALSE)</f>
-        <v>Frizoo</v>
+        <v>HuckHunters</v>
       </c>
       <c r="J107" s="29"/>
       <c r="K107" s="14">
@@ -3689,11 +3705,81 @@
     <row r="108" spans="2:12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="E67:K67"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:K85"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="E103:K103"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I99:J99"/>
     <mergeCell ref="I101:J101"/>
@@ -3710,81 +3796,11 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="I75:J75"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="E103:K103"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:K85"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="E67:K67"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:K49"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="E43:K43"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1 N2:XFD2 D2:L2 A11:XFD1048576 A3:B10 A2 E3:XFD10">
     <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="Court 2">
@@ -3824,66 +3840,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Martians">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="Martians">
       <formula>NOT(ISERROR(SEARCH("Martians",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="ESR and Friends">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="ESR and Friends">
       <formula>NOT(ISERROR(SEARCH("ESR and Friends",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Vending Machine">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="Vending Machine">
       <formula>NOT(ISERROR(SEARCH("Vending Machine",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="HuckHunters">
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="HuckHunters">
       <formula>NOT(ISERROR(SEARCH("HuckHunters",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="One Team One Meme">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="One Team One Meme">
       <formula>NOT(ISERROR(SEARCH("One Team One Meme",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Frizoo">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Frizoo">
       <formula>NOT(ISERROR(SEARCH("Frizoo",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="EY Tigers">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="EY Tigers">
       <formula>NOT(ISERROR(SEARCH("EY Tigers",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Martians">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Martians">
       <formula>NOT(ISERROR(SEARCH("Martians",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="ESR and Friends">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="ESR and Friends">
       <formula>NOT(ISERROR(SEARCH("ESR and Friends",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Vending Machine">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Vending Machine">
       <formula>NOT(ISERROR(SEARCH("Vending Machine",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="HuckHunters">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="HuckHunters">
       <formula>NOT(ISERROR(SEARCH("HuckHunters",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="One Team One Meme">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="One Team One Meme">
       <formula>NOT(ISERROR(SEARCH("One Team One Meme",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Frizoo">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Frizoo">
       <formula>NOT(ISERROR(SEARCH("Frizoo",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="EY Tigers">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="EY Tigers">
       <formula>NOT(ISERROR(SEARCH("EY Tigers",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4034,7 +4050,7 @@
       </c>
       <c r="G6" s="14">
         <f>'Enter scores'!G15</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>'Enter scores'!H15</f>
@@ -4149,7 +4165,7 @@
       </c>
       <c r="G8" s="14">
         <f>'Enter scores'!G17</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="str">
         <f>'Enter scores'!H17</f>
@@ -4379,7 +4395,7 @@
       </c>
       <c r="G14" s="14">
         <f>'Enter scores'!G27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2" t="str">
         <f>'Enter scores'!H27</f>
@@ -4395,7 +4411,7 @@
       </c>
       <c r="K14" s="14">
         <f>'Enter scores'!K27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="29" t="str">
@@ -4408,7 +4424,7 @@
       </c>
       <c r="O14" s="14">
         <f>'Enter scores'!G33</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P14" s="2" t="str">
         <f>'Enter scores'!H33</f>
@@ -4424,7 +4440,7 @@
       </c>
       <c r="S14" s="14">
         <f>'Enter scores'!K33</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4460,7 +4476,7 @@
       </c>
       <c r="G16" s="14">
         <f>'Enter scores'!G29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>'Enter scores'!H29</f>
@@ -4476,7 +4492,7 @@
       </c>
       <c r="K16" s="14">
         <f>'Enter scores'!K29</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="29" t="str">
@@ -4489,7 +4505,7 @@
       </c>
       <c r="O16" s="14">
         <f>'Enter scores'!G35</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>'Enter scores'!H35</f>
@@ -4505,7 +4521,7 @@
       </c>
       <c r="S16" s="14">
         <f>'Enter scores'!K35</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5736,7 +5752,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="29" t="str">
         <f>'Enter scores'!E105</f>
-        <v>Vending Machine</v>
+        <v>Martians</v>
       </c>
       <c r="N62" s="29">
         <f>'Enter scores'!F105</f>
@@ -5752,7 +5768,7 @@
       </c>
       <c r="Q62" s="29" t="str">
         <f>'Enter scores'!I105</f>
-        <v>Martians</v>
+        <v>GHD</v>
       </c>
       <c r="R62" s="29">
         <f>'Enter scores'!J105</f>
@@ -5788,7 +5804,7 @@
       </c>
       <c r="E64" s="29" t="str">
         <f>'Enter scores'!E101</f>
-        <v>GHD</v>
+        <v>Frizoo</v>
       </c>
       <c r="F64" s="29">
         <f>'Enter scores'!F101</f>
@@ -5817,7 +5833,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="29" t="str">
         <f>'Enter scores'!E107</f>
-        <v>HuckHunters</v>
+        <v>Vending Machine</v>
       </c>
       <c r="N64" s="29">
         <f>'Enter scores'!F107</f>
@@ -5833,7 +5849,7 @@
       </c>
       <c r="Q64" s="29" t="str">
         <f>'Enter scores'!I107</f>
-        <v>Frizoo</v>
+        <v>HuckHunters</v>
       </c>
       <c r="R64" s="29">
         <f>'Enter scores'!J107</f>
@@ -5847,6 +5863,94 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="96">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="M60:S60"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="Q64:R64"/>
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="X11:Z11"/>
     <mergeCell ref="X12:Z12"/>
@@ -5855,124 +5959,36 @@
     <mergeCell ref="X7:Z7"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="M60:S60"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Frizoo">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Frizoo">
       <formula>NOT(ISERROR(SEARCH("Frizoo",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Martians">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Martians">
       <formula>NOT(ISERROR(SEARCH("Martians",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="ESR and Friends">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ESR and Friends">
       <formula>NOT(ISERROR(SEARCH("ESR and Friends",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="One Team One Meme">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="One Team One Meme">
       <formula>NOT(ISERROR(SEARCH("One Team One Meme",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Vending Machine">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Vending Machine">
       <formula>NOT(ISERROR(SEARCH("Vending Machine",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="GHD">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="GHD">
       <formula>NOT(ISERROR(SEARCH("GHD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Huckhunters">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Huckhunters">
       <formula>NOT(ISERROR(SEARCH("Huckhunters",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="EY Tigers">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="EY Tigers">
       <formula>NOT(ISERROR(SEARCH("EY Tigers",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Court 1">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Court 1">
       <formula>NOT(ISERROR(SEARCH("Court 1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Court 2">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Court 2">
       <formula>NOT(ISERROR(SEARCH("Court 2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
